--- a/biology/Médecine/Marie_Rose_Moro/Marie_Rose_Moro.xlsx
+++ b/biology/Médecine/Marie_Rose_Moro/Marie_Rose_Moro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Rose Moro, née le 22 septembre 1961 à Ciudad Rodrigo en Espagne, est une pédopsychiatre, professeure des universités-praticienne hospitalière en psychiatrie de l'enfant et de l'adolescent à l'université de Paris Cité  et psychanalyste française. Elle dirige la Maison de Solenn, la maison des adolescents de l’hôpital Cochin (HUPC, APHP). Elle est membre de l'Institut universitaire de France depuis 2021.
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Née en Espagne, Marie Rose Moro arrive en 1962, alors âgée de 9 mois[1], avec sa famille, aux Mazures, dans les Ardennes, où son père a trouvé un emploi comme bûcheron. Sa famille s'installe quelques années plus tard à quelques kilomètres, à Pouru-aux-Bois, commune de 150 habitants, lorsqu'elle a 5 ans. Elle y passe son enfance et son adolescence avec ses quatre frères et sœurs[2] et est une lectrice du magazine illustré La Hulotte[3].
-L'école primaire de Pouru-aux-Bois accueille des enfants d'origine ardennaise, espagnole, polonaise ou maghrébine, situation qui sensibilise la jeune fille à la diversité culturelle. Elle se souvient que son instituteur lui a proposé, pour faciliter son intégration, de prendre le prénom de Marie Rose à l’école, tandis qu'elle est appelée Maria del Rosario chez elle, ce qui lui apprend à passer d'une place à l'autre[3],[4],[5],[2]. Elle continue son parcours scolaire au collège de Douzy, puis au lycée Pierre-Bayle de Sedan, puis entreprend des études de médecine et de philosophie à Nancy, avant d'entamer un double cursus de psychiatrie et d'anthropologie. Elle soutient en 1988 une thèse de médecine avec spécialisation en psychiatrie, sous la direction de Philippe Mazet, intitulée Introduction à l'étude de la vulnérabilité spécifique de l'enfant de migrants, dans laquelle elle étudie les « interactions mère-enfants », et souligne « l'intérêt de prendre en compte la spécificité culturelle de la famille et la situation transculturelle de l'enfant, pour saisir sa réalité clinique, réalité singulière et complexe »[6].
-Elle se spécialise en pédopsychiatrie, en suivant l’enseignement de Serge Lebovici, à l’hôpital Avicenne de Bobigny. Elle travaille avec Tobie Nathan, s'initiant grâce à lui aux principes de l'ethnopsychiatrie. En travaillant à Bobigny, elle découvre aussi la vie des immigrants en Île-de-France, différente de ce qu'elle a connu en pays sedanais et dans un milieu rural[3] : « Moi, j’avais pu faire de ma différence une force. J’ai toujours eu le sentiment que quelqu’un me tirait vers le haut. Tout au long de ma vie, j’ai rencontré des personnes qui m’ont encouragée à faire des choses que je n’avais pas envisagées moi-même. Alors que ces migrants, que je voyais à Bobigny, étaient vraiment discriminés et mis dans des positions insoutenables », explique-t-elle bien plus tard dans un entretien[7]. Son mari est médecin et haut fonctionnaire, ils ont deux enfants[2].
-Médecin et psychanalyste
-Depuis 1989, Marie Rose Moro est psychiatre de bébés, d'enfants et d'adolescents[1]. Elle a été cheffe de service de psychiatrie de l'enfant et de l'adolescent à l'hôpital Avicenne (Bobigny) de 2001 à 2013.
-Elle est une pionnière de la consultation transculturelle pour les enfants de migrants et leurs familles[8],[9].
-Depuis 2007, elle est psychanalyste, membre de la Société psychanalytique de Paris.
-Elle a fondé en 1996 et dirige l'Association internationale d'ethnopsychanalyse (AIEP)[10],[11]
-Elle est cofondatrice en 2010 avec Serge Bouznah du centre Babel, centre de ressources européen en clinique transculturelle[12].
-Enseignante et chercheuse
-Marie Rose Moro soutient en 1991 une thèse de psychologie et, en 1996, une habilitation à diriger des recherches. Elle est recrutée comme chef de clinique et assistante des universités (1989), puis maîtresse de conférences (1992-1996), et est nommée professeure de psychiatrie de l'enfant et de l'adolescent au CHU Avicenne (université Paris XIII, 2000-2008), puis au CHU Cochin (Université Paris-Descartes, (Sorbonne Paris Cité). Elle est directrice de recherches au laboratoire « Psychologie clinique, psychopathologie, psychanalyse » (PCPP - EA 4056)[13].
-Elle est responsable du diplôme universitaire (DU) de psychiatrie et compétences transculturelles à l'université de Paris Cité, participe à la fondation d'un DU en urgences psychiatriques, contribue à un enseignement spécialisé  européen en psychopathologie de l’adolescent. Elle collabore au diplôme universitaire de psychopathologie du bébé (Paris 13) et au diplôme inter-universitaire de médecine de l'adolescent. Elle anime une équipe de recherches transculturelles et une équipe de recherches sur l'adolescence[1].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en Espagne, Marie Rose Moro arrive en 1962, alors âgée de 9 mois, avec sa famille, aux Mazures, dans les Ardennes, où son père a trouvé un emploi comme bûcheron. Sa famille s'installe quelques années plus tard à quelques kilomètres, à Pouru-aux-Bois, commune de 150 habitants, lorsqu'elle a 5 ans. Elle y passe son enfance et son adolescence avec ses quatre frères et sœurs et est une lectrice du magazine illustré La Hulotte.
+L'école primaire de Pouru-aux-Bois accueille des enfants d'origine ardennaise, espagnole, polonaise ou maghrébine, situation qui sensibilise la jeune fille à la diversité culturelle. Elle se souvient que son instituteur lui a proposé, pour faciliter son intégration, de prendre le prénom de Marie Rose à l’école, tandis qu'elle est appelée Maria del Rosario chez elle, ce qui lui apprend à passer d'une place à l'autre. Elle continue son parcours scolaire au collège de Douzy, puis au lycée Pierre-Bayle de Sedan, puis entreprend des études de médecine et de philosophie à Nancy, avant d'entamer un double cursus de psychiatrie et d'anthropologie. Elle soutient en 1988 une thèse de médecine avec spécialisation en psychiatrie, sous la direction de Philippe Mazet, intitulée Introduction à l'étude de la vulnérabilité spécifique de l'enfant de migrants, dans laquelle elle étudie les « interactions mère-enfants », et souligne « l'intérêt de prendre en compte la spécificité culturelle de la famille et la situation transculturelle de l'enfant, pour saisir sa réalité clinique, réalité singulière et complexe ».
+Elle se spécialise en pédopsychiatrie, en suivant l’enseignement de Serge Lebovici, à l’hôpital Avicenne de Bobigny. Elle travaille avec Tobie Nathan, s'initiant grâce à lui aux principes de l'ethnopsychiatrie. En travaillant à Bobigny, elle découvre aussi la vie des immigrants en Île-de-France, différente de ce qu'elle a connu en pays sedanais et dans un milieu rural : « Moi, j’avais pu faire de ma différence une force. J’ai toujours eu le sentiment que quelqu’un me tirait vers le haut. Tout au long de ma vie, j’ai rencontré des personnes qui m’ont encouragée à faire des choses que je n’avais pas envisagées moi-même. Alors que ces migrants, que je voyais à Bobigny, étaient vraiment discriminés et mis dans des positions insoutenables », explique-t-elle bien plus tard dans un entretien. Son mari est médecin et haut fonctionnaire, ils ont deux enfants.
 </t>
         </is>
       </c>
@@ -551,13 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Axes de recherche scientifique</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ses travaux scientifiques concernent les adolescents, les forces et vulnérabilités des enfants de migrants, les dispositifs thérapeutiques, les métissages, le bilinguisme, le traumatisme psychique, etc. Ses recherches l'ont amenée à théoriser la vulnérabilité et les besoins spécifiques de l'enfant de migrant mais aussi leur créativité. Cela est passé par la création d'une unité de soin transculturelle destinée aux familles migrantes en 1987, le premier dispositif de la sorte[9]. Dans ces dispositifs, la culture des patients, celle des thérapeutes et la différence culturelle sont utilisées pour soigner, comme levier thérapeutique[14].
-Elle s'intéresse au rôle de l'école, à la réussite scolaire des enfants de migrants. Elle prône la valorisation de la langue maternelle « qui permet à l'élève d'être plus à l'aise dans sa langue seconde ». Elle s'indigne de ce que « la diversité et le métissage soient encore essentiellement vus comme des obstacles », et met en exergue les atouts que peuvent constituer des différences culturelles[15]. Elle mène des recherches sur les bébés, les enfants et les adolescents : enfants de migrants, enfants de couples mixtes, enfants bilingues, enfants adoptés, ou enfants expatriés.
+          <t>Médecin et psychanalyste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1989, Marie Rose Moro est psychiatre de bébés, d'enfants et d'adolescents. Elle a été cheffe de service de psychiatrie de l'enfant et de l'adolescent à l'hôpital Avicenne (Bobigny) de 2001 à 2013.
+Elle est une pionnière de la consultation transculturelle pour les enfants de migrants et leurs familles,.
+Depuis 2007, elle est psychanalyste, membre de la Société psychanalytique de Paris.
+Elle a fondé en 1996 et dirige l'Association internationale d'ethnopsychanalyse (AIEP),
+Elle est cofondatrice en 2010 avec Serge Bouznah du centre Babel, centre de ressources européen en clinique transculturelle.
 </t>
         </is>
       </c>
@@ -583,18 +600,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Responsabilités institutionnelles et éditoriales</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marie Rose Moro a dirigé le service de psychopathologie de l'enfant, de l'adolescent et de psychiatrie générale à Bobigny de 2000 à 2014  et y a créé, en 2004, une maison des adolescents, Casita, qui s'engage sur l'accompagnement des adolescents en difficulté. Elle a observé des évolutions dans la façon dont ces adolescents expriment leur malaise[15] : anorexie des prépubères, phobie scolaire, etc. Depuis 2008, elle est chef de service de la Maison de Solenn, maison des adolescents de l'hôpital Cochin (AP-HP) à Paris[16],[17].
-Elle est fondatrice et directrice scientifique de la revue transculturelle L'autre, Cliniques, Cultures et Sociétés[18] et dirige la collection « La bibliothèque de l'autre », aux éditions La Pensée sauvage[19],[20] depuis 2000. Elle dirige une collection de livres chez In Press, Hospitalité(s) depuis 2020. Elle codirige la revue Psychiatrie de l'enfant avec Bernard Golse aux PUF depuis 2020 après avoir été membre du comité de rédaction depuis 2006. 
-Elle a été vice-présidente de Psynem, section française de l'association internationale WAIMH World Association for Infant Mental Health[21] de 2006 à 2012.
-Elle s'est engagée au sein de l'ONG Médecins sans frontières (MSF), depuis le séisme de 1988 en Arménie[1],[22]. Elle y a dirigé les recherches de psychiatrie en situation humanitaire[1] et a assuré une supervision des programmes de psychiatrie pour les bébés, les enfants et les adolescents en particulier jusqu'en 2019.
-De 2019 à 2022, elle est nommée en tant que personnalité qualifiée au conseil scientifique de la Délégation interministérielle à la lutte contre le racisme, l'antisémitisme et la haine anti-LGBT (DILCRAH)[23].
-En 2020, elle est nommée au conseil scientifique de la Défenseure des droits, Claire Hédon, Collège « Défense et promotion des droits de l'enfant »[24].
-Elle est membre de l'Institut universitaire de France depuis 2021[25].
+          <t>Enseignante et chercheuse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Rose Moro soutient en 1991 une thèse de psychologie et, en 1996, une habilitation à diriger des recherches. Elle est recrutée comme chef de clinique et assistante des universités (1989), puis maîtresse de conférences (1992-1996), et est nommée professeure de psychiatrie de l'enfant et de l'adolescent au CHU Avicenne (université Paris XIII, 2000-2008), puis au CHU Cochin (Université Paris-Descartes, (Sorbonne Paris Cité). Elle est directrice de recherches au laboratoire « Psychologie clinique, psychopathologie, psychanalyse » (PCPP - EA 4056).
+Elle est responsable du diplôme universitaire (DU) de psychiatrie et compétences transculturelles à l'université de Paris Cité, participe à la fondation d'un DU en urgences psychiatriques, contribue à un enseignement spécialisé  européen en psychopathologie de l’adolescent. Elle collabore au diplôme universitaire de psychopathologie du bébé (Paris 13) et au diplôme inter-universitaire de médecine de l'adolescent. Elle anime une équipe de recherches transculturelles et une équipe de recherches sur l'adolescence.
 </t>
         </is>
       </c>
@@ -620,15 +638,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (2021)[26]
- Officier de l'ordre national du Mérite (2014)[27].
-Docteure honoris causa de l’université de Mons (2022)[28].
-2022 : membre correspondante de l'Académie nationale de médecine (section médecine et société)[29].</t>
+          <t>Axes de recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux scientifiques concernent les adolescents, les forces et vulnérabilités des enfants de migrants, les dispositifs thérapeutiques, les métissages, le bilinguisme, le traumatisme psychique, etc. Ses recherches l'ont amenée à théoriser la vulnérabilité et les besoins spécifiques de l'enfant de migrant mais aussi leur créativité. Cela est passé par la création d'une unité de soin transculturelle destinée aux familles migrantes en 1987, le premier dispositif de la sorte. Dans ces dispositifs, la culture des patients, celle des thérapeutes et la différence culturelle sont utilisées pour soigner, comme levier thérapeutique.
+Elle s'intéresse au rôle de l'école, à la réussite scolaire des enfants de migrants. Elle prône la valorisation de la langue maternelle « qui permet à l'élève d'être plus à l'aise dans sa langue seconde ». Elle s'indigne de ce que « la diversité et le métissage soient encore essentiellement vus comme des obstacles », et met en exergue les atouts que peuvent constituer des différences culturelles. Elle mène des recherches sur les bébés, les enfants et les adolescents : enfants de migrants, enfants de couples mixtes, enfants bilingues, enfants adoptés, ou enfants expatriés.
+</t>
         </is>
       </c>
     </row>
@@ -653,10 +672,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Responsabilités institutionnelles et éditoriales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Rose Moro a dirigé le service de psychopathologie de l'enfant, de l'adolescent et de psychiatrie générale à Bobigny de 2000 à 2014  et y a créé, en 2004, une maison des adolescents, Casita, qui s'engage sur l'accompagnement des adolescents en difficulté. Elle a observé des évolutions dans la façon dont ces adolescents expriment leur malaise : anorexie des prépubères, phobie scolaire, etc. Depuis 2008, elle est chef de service de la Maison de Solenn, maison des adolescents de l'hôpital Cochin (AP-HP) à Paris,.
+Elle est fondatrice et directrice scientifique de la revue transculturelle L'autre, Cliniques, Cultures et Sociétés et dirige la collection « La bibliothèque de l'autre », aux éditions La Pensée sauvage, depuis 2000. Elle dirige une collection de livres chez In Press, Hospitalité(s) depuis 2020. Elle codirige la revue Psychiatrie de l'enfant avec Bernard Golse aux PUF depuis 2020 après avoir été membre du comité de rédaction depuis 2006. 
+Elle a été vice-présidente de Psynem, section française de l'association internationale WAIMH World Association for Infant Mental Health de 2006 à 2012.
+Elle s'est engagée au sein de l'ONG Médecins sans frontières (MSF), depuis le séisme de 1988 en Arménie,. Elle y a dirigé les recherches de psychiatrie en situation humanitaire et a assuré une supervision des programmes de psychiatrie pour les bébés, les enfants et les adolescents en particulier jusqu'en 2019.
+De 2019 à 2022, elle est nommée en tant que personnalité qualifiée au conseil scientifique de la Délégation interministérielle à la lutte contre le racisme, l'antisémitisme et la haine anti-LGBT (DILCRAH).
+En 2020, elle est nommée au conseil scientifique de la Défenseure des droits, Claire Hédon, Collège « Défense et promotion des droits de l'enfant ».
+Elle est membre de l'Institut universitaire de France depuis 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Rose_Moro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rose_Moro</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (2021)
+ Officier de l'ordre national du Mérite (2014).
+Docteure honoris causa de l’université de Mons (2022).
+2022 : membre correspondante de l'Académie nationale de médecine (section médecine et société).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Rose_Moro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rose_Moro</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Maternités en exil. Mettre des bébés au monde et les faire grandir en situation transculturelle. La pensée sauvage, 2023, avec D. Neuman, I. Réal et R. Radjack (2e édition).
 Accueillir les enfants migrants et leurs parents. Yapaka, 2023, avec R. Radjack.
